--- a/colab/data/image_list.xlsx
+++ b/colab/data/image_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kebel\Dropbox (GaTech)\rcnn_extras\faster-rcnn-one-notebook\colab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0961D2D1-63D3-498B-8E3D-310E41037E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFAEFA-7804-4111-AB9C-7958999483DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2213" yWindow="158" windowWidth="13544" windowHeight="7380" xr2:uid="{B428ABB1-FF24-4266-A9FA-77A73B72DC97}"/>
   </bookViews>
@@ -39,37 +39,37 @@
     <t>filename</t>
   </si>
   <si>
-    <t>/data/test_images/img30.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img31.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img32.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img33.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img34.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img35.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img36.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img37.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img38.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img39.png</t>
-  </si>
-  <si>
-    <t>/data/test_images/img40.png</t>
+    <t>'./data/test_images/img33.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img34.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img35.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img36.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img37.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img38.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img39.png'</t>
+  </si>
+  <si>
+    <t>'./data/test_images/img40.png'</t>
+  </si>
+  <si>
+    <t>./data/test_images/img30.png</t>
+  </si>
+  <si>
+    <t>./data/test_images/img31.png</t>
+  </si>
+  <si>
+    <t>./data/test_images/img32.png</t>
   </si>
 </sst>
 </file>
@@ -105,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +425,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -435,58 +436,58 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
